--- a/biology/Botanique/Illécèbre_verticillé/Illécèbre_verticillé.xlsx
+++ b/biology/Botanique/Illécèbre_verticillé/Illécèbre_verticillé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ill%C3%A9c%C3%A8bre_verticill%C3%A9</t>
+          <t>Illécèbre_verticillé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Illecebrum verticillatum
 L'illécèbre verticillé (Illecebrum verticillatum L.) ou herbe aux panaris est une petite plante annuelle, peu fréquente, que l'on rencontre sur des zones sableuses, acides, mouillées, voire inondées en hiver et très sèches en été, moissons, chemins piétinés, ornières, bord des étangs temporairement asséchés.
